--- a/excel/data_input/room_test.xlsx
+++ b/excel/data_input/room_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DO_AN\lumagas\app\static\file\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DO_AN\lumagas\excel\data_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EEFDF5-3F81-40D3-B9FF-104C12D8D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4762507D-50F8-46E1-917E-B7B48BD1963D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CD47325C-DEA7-418A-B078-8772907625D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Tên_phòng</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>thuchanh</t>
+  </si>
+  <si>
+    <t>B1.01</t>
+  </si>
+  <si>
+    <t>B1.02</t>
+  </si>
+  <si>
+    <t>B1.03</t>
+  </si>
+  <si>
+    <t>C1.01</t>
+  </si>
+  <si>
+    <t>C1.02</t>
+  </si>
+  <si>
+    <t>D1.01</t>
+  </si>
+  <si>
+    <t>D1.02</t>
   </si>
 </sst>
 </file>
@@ -94,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A402EB4E-13C2-4AC4-B95F-5D7990680C25}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -430,35 +454,112 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
